--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90287.65705275496</v>
+        <v>16066941.70439682</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90287.65705275496</v>
+        <v>16066941.70439682</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2896.364040432717</v>
+        <v>251432.6108187522</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2896.364040432717</v>
+        <v>251432.6108187522</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959534658.8575671</v>
+        <v>39785205.76182348</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8009.746257369095</v>
+        <v>960339.3870514981</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14894.7357555236</v>
+        <v>1744680.036122045</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21809.04498735688</v>
+        <v>2529020.685192593</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28871.07870985445</v>
+        <v>3314927.417821204</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35899.54900207313</v>
+        <v>4100477.977366813</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42993.05371928554</v>
+        <v>4886028.536912421</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49995.02796708279</v>
+        <v>5671579.096458026</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>57050.24212568475</v>
+        <v>6457129.656003632</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>64151.02007255219</v>
+        <v>7242690.9102531</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>71246.5263168634</v>
+        <v>8028225.296400648</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>78349.96966092386</v>
+        <v>8813759.682548203</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>85305.93200904712</v>
+        <v>9597956.321138751</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>92275.93713549875</v>
+        <v>10382469.66410673</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99328.05167422559</v>
+        <v>11147637.06538525</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>106511.4838410528</v>
+        <v>11916335.57093281</v>
       </c>
     </row>
   </sheetData>
@@ -27040,31 +27040,31 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>371</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>361</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>49</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>256</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
